--- a/medicine/Enfance/Judy_Blume/Judy_Blume.xlsx
+++ b/medicine/Enfance/Judy_Blume/Judy_Blume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judy Blume (née le 12 février 1938) est une écrivaine américaine spécialisée dans les romans pour enfants et adolescents. Elle est née et réside à Elizabeth, dans l'État du New Jersey. Elle a cependant écrit quelques romans pour adultes, tels que Wifey ou Sœurs d'un été. Elle s'inventait des petites histoires dans sa tête, ce qui est encore une de ses occupations favorites.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Judy Blume est née à Elizabeth dans le New Jersey ; sa mère, Esther (née Rosenfeld), est femme au foyer, et son père, Ralph Sussman, dentiste ; son frère, David, a cinq ans de plus qu'elle ; sa famille est juive[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judy Blume est née à Elizabeth dans le New Jersey ; sa mère, Esther (née Rosenfeld), est femme au foyer, et son père, Ralph Sussman, dentiste ; son frère, David, a cinq ans de plus qu'elle ; sa famille est juive.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Judy Blume a été un des premiers auteurs à écrire des romans pour adolescents qui abordaient des sujets aussi sensibles que le racisme (Iggie’s House), la menstruation (Dieu, tu es là ? C’est moi, Margaret), le divorce (Ce n’est pas la fin du monde), la masturbation (Tiens-toi droite !, Et puis j’en sais rien !) ou la sexualité chez les jeunes (Pour Toujours).
-Les fans de Judy Blume apprécient la connotation très réaliste de ses romans, l’humour qu’elle y distille, et son refus d’aborder de manière simpliste des sujets d’ordre moral[réf. nécessaire]. C’est précisément son traitement volontairement ambigu de sujets aussi sensibles qui ont fait d’elle une cible récurrente de divers censeurs aux États-Unis, aussi bien les bibliothèques des écoles que des membres de la droite religieuse[réf. nécessaire]. Aujourd’hui encore, ses livres restent controversés dans certaines écoles[réf. nécessaire]. D’ailleurs, l’American Library Association rapporte que Pour Toujours était le 8e roman le plus controversé dans les bibliothèques pendant les années 1990[2].
+Les fans de Judy Blume apprécient la connotation très réaliste de ses romans, l’humour qu’elle y distille, et son refus d’aborder de manière simpliste des sujets d’ordre moral[réf. nécessaire]. C’est précisément son traitement volontairement ambigu de sujets aussi sensibles qui ont fait d’elle une cible récurrente de divers censeurs aux États-Unis, aussi bien les bibliothèques des écoles que des membres de la droite religieuse[réf. nécessaire]. Aujourd’hui encore, ses livres restent controversés dans certaines écoles[réf. nécessaire]. D’ailleurs, l’American Library Association rapporte que Pour Toujours était le 8e roman le plus controversé dans les bibliothèques pendant les années 1990.
 C’est l’un des auteurs pour adolescents les plus régulièrement censurés[réf. nécessaire], ce qui l’a conduit à sortir un recueil de nouvelles sur le thème de la censure (Places I Never Meant to Be: Original Stories by Censored Writers)
 Après avoir publié un grand nombre de romans pour jeunes, Judy Blume a choisi d’aborder la fiction pour adultes, avec succès, puisque ses romans Wifey et Sœurs d'un été ont été vendus respectivement à 4 millions et 3 millions d’exemplaires.
-En 1996, l’American Library Association a remis à la romancière le prix Margaret A. Edwards pour sa contribution à la littérature pour adolescents[3].
-Elle a également reçu en avril 2000 de la part de la “Library of Congress” un prix pour son apport majeur à l’héritage culturel des États-Unis[4]. En 2004, Judy Blume a reçu la Médaille pour Contribution Éminente à la Littérature Américaine de la part de la « National Book Foundation »[5]. Ses 25 livres ont remporté de nombreux prix[réf. souhaitée].
+En 1996, l’American Library Association a remis à la romancière le prix Margaret A. Edwards pour sa contribution à la littérature pour adolescents.
+Elle a également reçu en avril 2000 de la part de la “Library of Congress” un prix pour son apport majeur à l’héritage culturel des États-Unis. En 2004, Judy Blume a reçu la Médaille pour Contribution Éminente à la Littérature Américaine de la part de la « National Book Foundation ». Ses 25 livres ont remporté de nombreux prix[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The One in the Middle Is the Green Kangaroo
 Iggie's house
